--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Shifts</t>
   </si>
@@ -40,64 +40,70 @@
     <t>Lunch1</t>
   </si>
   <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Chad</t>
+    <t>Lunch2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lunch3</t>
+  </si>
+  <si>
+    <t>Bothams1</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Bothams2</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Bothams3</t>
+  </si>
+  <si>
+    <t>Bothams4</t>
+  </si>
+  <si>
+    <t>Hole1</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Hole2</t>
+  </si>
+  <si>
+    <t>Irena</t>
   </si>
   <si>
     <t>BEN</t>
-  </si>
-  <si>
-    <t>Lunch2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bothams1</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Erica</t>
-  </si>
-  <si>
-    <t>Irena</t>
-  </si>
-  <si>
-    <t>Bothams2</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Bothams3</t>
-  </si>
-  <si>
-    <t>Hole1</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Hole2</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,7 +142,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
+        <fgColor rgb="F5F580"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FD594D"/>
       </patternFill>
     </fill>
   </fills>
@@ -152,10 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
@@ -538,182 +559,234 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
